--- a/Data Collection/Authors/Jonas Lüscher/Lüscher_all_2021.xlsx
+++ b/Data Collection/Authors/Jonas Lüscher/Lüscher_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Authors\Jonas Lüscher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Jonas Lüscher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08CF12-D531-4874-97F9-E85D43D98E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3C778A-793B-4BF0-8BAC-B35D08BC5E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -702,7 +702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,13 +726,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -759,20 +771,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1054,10 +1074,14 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1111,133 +1135,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1267,55 +1291,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1365,159 +1389,159 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1547,32 +1571,32 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>44297.801198184432</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1634,119 +1658,119 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>44297.801198253866</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>44297.801198277011</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="7">
         <v>44297.801198300171</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="7">
         <v>44297.801198311747</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1921,32 +1945,32 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="7">
         <v>44297.801753174383</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1976,61 +2000,61 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="7">
         <v>44326.802295274712</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="7">
         <v>44320.802295286281</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Data Collection/Authors/Jonas Lüscher/Lüscher_all_2021.xlsx
+++ b/Data Collection/Authors/Jonas Lüscher/Lüscher_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Jonas Lüscher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Jonas Lüscher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3C778A-793B-4BF0-8BAC-B35D08BC5E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{4D3C778A-793B-4BF0-8BAC-B35D08BC5E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A020050E-DD43-4B13-B9F2-5FDDA1052067}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
   <si>
     <t>title</t>
   </si>
@@ -36,18 +36,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -57,18 +51,12 @@
     <t>Hamburger Abendblatt</t>
   </si>
   <si>
-    <t>5 Jan 2021</t>
-  </si>
-  <si>
     <t>Februar in der dreitägigen Reihe „Sorge – Angst – Hoffnung“ gehen, an der unter anderem der Schriftsteller Jonas Lüscher teilnimmt, der im Frühjahr so schwer ...</t>
   </si>
   <si>
     <t>https://www.abendblatt.de/kultur-live/article231267004/Tipps-Das-bringt-das-Literaturjahr-2021.html</t>
   </si>
   <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
-  </si>
-  <si>
     <t>Kultur An der Wandse gibt es Bilder und mehr zu entdecken</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
   </si>
   <si>
     <t>rbb24</t>
-  </si>
-  <si>
-    <t>3 Jan 2021</t>
   </si>
   <si>
     <t>Regula Lüscher, Senatsbaudirektorin, spricht zum Ergebnis des Realisierungswettbewerbs &lt;&lt;Umbau und Erweiterung Komische ... dpa/Jonas Güttler ...</t>
@@ -100,9 +85,6 @@
     <t>SRF</t>
   </si>
   <si>
-    <t>8 Jan 2021</t>
-  </si>
-  <si>
     <t>Autor: Andi Lüscher. Freitag ... Antwort von Jonas Henn (Na) Freitag, 8. ... Zustimmen dem Kommentar zustimmen(20); Antwort von Jonas Henn (Na) Samstag, 9.</t>
   </si>
   <si>
@@ -119,9 +101,6 @@
     <t>Bahn will Berliner S21 vom Wedding zum Hauptbahnhof im Dezember eröffnen</t>
   </si>
   <si>
-    <t>9 Jan 2021</t>
-  </si>
-  <si>
     <t>https://www.rbb24.de/panorama/beitrag/2021/01/berlin-s21-eroeffnung-dezember-2021-anbindung-hauptbahnhof.html</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
     <t>Aargauer Zeitung</t>
   </si>
   <si>
-    <t>4 Jan 2021</t>
-  </si>
-  <si>
     <t>Jonas Fricker, Grüne, Baden. Zur Verfügung gestellt. «Es ist für mich wie eine freudige Heimkehr ...</t>
   </si>
   <si>
@@ -176,9 +152,6 @@
     <t>Handelszeitung</t>
   </si>
   <si>
-    <t>16 Jan 2021</t>
-  </si>
-  <si>
     <t>Mit seinem Roman «Kraft», der im Silicon Valley spielt, gewann Jonas Lüscher den Schweizer Buchpreis. Quelle: Florian Generotzky für BILANZ. Schriftsteller ...</t>
   </si>
   <si>
@@ -195,9 +168,6 @@
     <t>29 Geschosse: Höchstes Holz-Hochhaus Deutschlands entsteht in Kreuzberg</t>
   </si>
   <si>
-    <t>29 Jan 2021</t>
-  </si>
-  <si>
     <t>... so Senatsbaudirektorin Regula Lüscher. Der Kreuzberger Bezirksstadtrat Florian Schmidt (Grüne) sprach von einem "Pilotprojekt "mit Leuchtturmcharakter" für ...</t>
   </si>
   <si>
@@ -214,9 +184,6 @@
     <t>Kritik an Corona-Massnahmen – SVP fordert sofortige Öffnung von Läden und Restaurants</t>
   </si>
   <si>
-    <t>30 Jan 2021</t>
-  </si>
-  <si>
     <t>Kommentar von Dave Lüscher (Dave77) Samstag, 30. Januar 2021, 03:30 Uhr ... Kommentar von Jonas Klein (jonasklein) Samstag, 30. Januar 2021, 03:21 Uhr.</t>
   </si>
   <si>
@@ -236,9 +203,6 @@
     <t>Die Zeit</t>
   </si>
   <si>
-    <t>8 Feb 2021</t>
-  </si>
-  <si>
     <t>Von Jonas Lüscher. 8. Februar 2021, 20:54 Uhr 1.294 Kommentare. Vermögensteuer: Wohin nur mit all dem Geld? © Steffen Scheyhing; Ramesh Amruth/​ ...</t>
   </si>
   <si>
@@ -252,9 +216,6 @@
     <t>Index of /kultur</t>
   </si>
   <si>
-    <t>10 Feb 2021</t>
-  </si>
-  <si>
     <t>der-rote-teppich-ist-ausgerollt/, 2020-10-27 12:55, -. [DIR], der-schatz-am-parkweg/, 2020-10-27 12:55, -. [DIR], der-schweizer-buchpreis-geht-jonas-luescher/ ...</t>
   </si>
   <si>
@@ -265,9 +226,6 @@
   </si>
   <si>
     <t>travelnews.ch</t>
-  </si>
-  <si>
-    <t>3 Feb 2021</t>
   </si>
   <si>
     <t>Von Jonas Sulzberger. 16.02.2021 – 09:44 ... Heute: Jonas Sulzberger schwärmt von kulinarischen Entdeckungen in New York. ... Von Nadja Lüscher.</t>
@@ -286,9 +244,6 @@
     <t>Corona an Schulen - Epidemiologin: Schulen haben noch ...</t>
   </si>
   <si>
-    <t>1 Feb 2021</t>
-  </si>
-  <si>
     <t>Zustimmen dem Kommentar zustimmen(43); Kommentar von Jonas Lüscher (Jaescho) Montag, 1. Februar 2021, 23:55 Uhr. Liebes SRF Team ich habe eine ...</t>
   </si>
   <si>
@@ -308,9 +263,6 @@
     <t>Radsport News</t>
   </si>
   <si>
-    <t>28 Feb 2021</t>
-  </si>
-  <si>
     <t>Deutsche: Jonas Koch (Intermarché - Wanty-Gobert), Marcel Sieberg (Bahrain ... Damian Lüscher, Cyrille Thiery, Yannis Voisard (alle Swiss Racing Academy).</t>
   </si>
   <si>
@@ -330,9 +282,6 @@
     <t>Travelnews</t>
   </si>
   <si>
-    <t>25 Feb 2021</t>
-  </si>
-  <si>
     <t>... sich in diesen Wochen des Reisestillstands sehr gerne zurückerinnert. Heute: Nadja Lüscher, Filialleiterin Hotelplan Wetzikon, sehnt sich nach der Südsee.</t>
   </si>
   <si>
@@ -349,9 +298,6 @@
     <t>Auf Food-Tour in den Outer Boroughs von N.Y.C.</t>
   </si>
   <si>
-    <t>16 Feb 2021</t>
-  </si>
-  <si>
     <t>... man sich in diesen Wochen des Reisestillstands sehr gerne zurückerinnert. Heute: Jonas Sulzberger schwärmt von kulinarischen Entdeckungen in New York.</t>
   </si>
   <si>
@@ -368,9 +314,6 @@
     <t>Das Neuste zur Coronakrise - Polizei löste am Wochenende ...</t>
   </si>
   <si>
-    <t>21 Feb 2021</t>
-  </si>
-  <si>
     <t>Zustimmen dem Kommentar zustimmen(79) Antworten anwählen um auf den Kommentar zu antworten; Kommentar von Jonas Lüscher (Jaescho) Dienstag, 16.</t>
   </si>
   <si>
@@ -390,9 +333,6 @@
     <t>Thuner Tagblatt</t>
   </si>
   <si>
-    <t>5 Mar 2021</t>
-  </si>
-  <si>
     <t>Jonas Lüscher bemerkte, dass im politischen Diskurs oft über notwendige ... politischen Ausrichtungen», erklärte der Schriftsteller Jonas Lüscher aus Bern.</t>
   </si>
   <si>
@@ -409,9 +349,6 @@
     <t>Ein Virus, das auch Bücher infizierte: 5 Literatur-Tipps</t>
   </si>
   <si>
-    <t>1 month ago</t>
-  </si>
-  <si>
     <t>Hamburg. Es müsse, sagte der Schriftsteller Jonas Lüscher sinngemäß kürzlich, eine ganze Weile vergehen, sicher mehrere Jahre, bis man sich gewinnbringend ...</t>
   </si>
   <si>
@@ -562,9 +499,6 @@
     <t>Südostschweiz</t>
   </si>
   <si>
-    <t>4 weeks ago</t>
-  </si>
-  <si>
     <t>Elisabeth Bronfen, Anglistikprofessorin in Zürich, wird mit dem Autor Jonas Lüscher und der Autorin Marina Stepanova aus Russland sowie mit dem Politologen ...</t>
   </si>
   <si>
@@ -645,9 +579,6 @@
     <t>Nau</t>
   </si>
   <si>
-    <t>2 weeks ago</t>
-  </si>
-  <si>
     <t>Der Schweizer Autor Jonas Lüscher und der österreichische Philosoph Michael Zichy haben für ihr Sachbuch Denkerinnen und Denker aus unterschiedlichen ...</t>
   </si>
   <si>
@@ -658,9 +589,6 @@
   </si>
   <si>
     <t>Luzerner Zeitung</t>
-  </si>
-  <si>
-    <t>1 day ago</t>
   </si>
   <si>
     <t>... Riner vorbehalten, an der Seite von Lüscher den einzigen Punkt einzuspielen. ... Den möglichen sechsten Punkt vergab das Doppel Jonas Schär/Laurent ...</t>
@@ -679,9 +607,6 @@
     <t>Tennis - Allmends Frauen starten mit gewichtigen Zuzügen in die NLB-Interclubsaison</t>
   </si>
   <si>
-    <t>1 week ago</t>
-  </si>
-  <si>
     <t>... für Sursee spielte, und mit Sophie Lüscher (N3.32), der 19-jährigen Aargauerin, ... Der Aargauer Jonas Schär (N3.33), der Baselbieter Laurent Wickli (N4.99) ...</t>
   </si>
   <si>
@@ -693,6 +618,9 @@
 Es ist schwierig, einen Favoriten zu nennen», sagt Volejnicek, die vor allem auf den Aufsteiger Nyon gespannt ist mit der Nummer 1, Tess Sugnaux (N2.20).
 Der Aargauer Jonas Schär (N3.33), der Baselbieter Laurent Wickli (N4.99) von Allmends NLC-Team und der Obwaldner Neuzuzug Lars Aregger (N4.84) vervollständigen die Equipe.
 Zuoberst auf der Wunsch­liste aller Spielerinnen und Spieler steht gutes Wetter, damit die Partien im Freien über die Bühne gehen können.</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -700,7 +628,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -747,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -770,25 +698,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1071,26 +1016,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1102,1000 +1047,842 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44201</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" s="8">
+        <v>44199</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="8">
+        <v>44204</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44205</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="D6" s="8">
+        <v>44200</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44200</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44225</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8">
+        <v>44226</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44235</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="7">
+        <v>44237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44230</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44228</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D15" s="8">
+        <v>44255</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="D16" s="8">
+        <v>44252</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44243</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44248</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>82</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44260</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8">
         <v>44297.801198184432</v>
       </c>
+      <c r="E20" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="3">
+        <v>91</v>
+      </c>
+      <c r="D21" s="7">
         <v>44297.801198207577</v>
       </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44297.801198230743</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44297.801198253866</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44297.801198277011</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="3">
-        <v>44297.801198230743</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="7">
-        <v>44297.801198253866</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="7">
-        <v>44297.801198277011</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="8">
         <v>44297.801198300171</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+        <v>109</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="B26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="8">
         <v>44297.801198311747</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="3">
+        <v>117</v>
+      </c>
+      <c r="D27" s="7">
         <v>44297.801753023901</v>
       </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
         <v>44297.801753058622</v>
       </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="3">
+        <v>126</v>
+      </c>
+      <c r="D29" s="7">
         <v>44299.801753070198</v>
       </c>
-      <c r="F29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="3">
+        <v>130</v>
+      </c>
+      <c r="D30" s="7">
         <v>44297.801753104934</v>
       </c>
-      <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="3">
+        <v>91</v>
+      </c>
+      <c r="D31" s="7">
         <v>44297.801753128078</v>
       </c>
-      <c r="F31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="3">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7">
         <v>44297.801753151223</v>
       </c>
-      <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="B33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="8">
         <v>44297.801753174383</v>
       </c>
+      <c r="E33" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="F33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="3">
+        <v>146</v>
+      </c>
+      <c r="D34" s="7">
         <v>44313.802030267208</v>
       </c>
-      <c r="F34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="B35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="8">
         <v>44326.802295274712</v>
       </c>
+      <c r="E35" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="F35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+        <v>152</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="8">
         <v>44320.802295286281</v>
       </c>
+      <c r="E36" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F36" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{14F368C3-BBA3-4704-9552-2A10C005FCF6}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{A60716B4-495B-457C-AF78-A25430040B3C}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{3B063CDB-8751-4845-B818-A7BC03789A52}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{AF1C565F-99D6-425C-8433-A6A08DAD0DCA}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{7D4FD8CF-2D21-4522-B992-725308BCECB1}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{25F70D3C-CD2E-4C82-B4B8-FC179DB7F378}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{86B3FA4D-300D-4622-984A-ACC8098FF924}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{7D39343B-1F5D-4A67-A24A-A7560181C964}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{DF7989D3-638C-4640-8FE3-1E24C43E46F6}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{5F855536-9311-4AF7-8B6E-BE1F55E40E05}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{FEB57963-529E-487C-9AE9-1C8A52A86673}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{1CA1D275-0793-4451-B266-DAD68F14A63F}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{BF79C82E-7C88-43EB-B6D5-68333CCEF85E}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{6211FD9A-A313-45B7-A13C-CDC9EE30C1AB}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{940C7F86-A407-4384-885A-D3BC9917BDD9}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{3E87FFCF-5DD8-43F9-BEEA-AC00434CB9F0}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{AD8767CA-1F4B-4F2A-9353-6358E113624E}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{BAD932C1-1E1D-4FA5-8EE9-F76A16ED1494}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{BAD71995-279B-4817-8B51-972A4F6FF4A5}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{DEC204B6-08D1-4B07-94B6-186DB3093592}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{ED88B722-0F89-46A6-B828-F29BAE25A49E}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{F67A7018-5F5B-4CB2-8D56-0DC2DB1599BE}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{C115AA9B-10ED-4470-98E8-DE416CD49179}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{2D7F9C9A-CA00-45A0-B645-CA4BFBE2597B}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{CC7CB2BA-DB4D-4BA3-8152-704CC4E1921F}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{6A34A811-B732-4489-A12C-CD2448E1E4B7}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{3F88EB21-E2A2-47CB-8027-D233C1327102}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{C90C14B1-E097-4B2F-8E66-BB157B4CA301}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{59D59751-1815-459E-A370-8D5518635A0A}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{71F110BB-CBC2-4F01-A824-6D52961EBF3B}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{9ED2DFF2-8BE6-450A-AD95-020954719C3A}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{6059C9B2-19A1-4612-A54C-A75B02541586}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{1C0366C6-C202-449D-95EC-306F08CA58C1}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{0BD421B5-3CE4-45C8-96A9-1B20165795F8}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{1F2F8A10-F6B5-458D-883C-4975543ED54E}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{14F368C3-BBA3-4704-9552-2A10C005FCF6}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{A60716B4-495B-457C-AF78-A25430040B3C}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{3B063CDB-8751-4845-B818-A7BC03789A52}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{AF1C565F-99D6-425C-8433-A6A08DAD0DCA}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{7D4FD8CF-2D21-4522-B992-725308BCECB1}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{25F70D3C-CD2E-4C82-B4B8-FC179DB7F378}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{86B3FA4D-300D-4622-984A-ACC8098FF924}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{7D39343B-1F5D-4A67-A24A-A7560181C964}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{DF7989D3-638C-4640-8FE3-1E24C43E46F6}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{5F855536-9311-4AF7-8B6E-BE1F55E40E05}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{FEB57963-529E-487C-9AE9-1C8A52A86673}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{1CA1D275-0793-4451-B266-DAD68F14A63F}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{BF79C82E-7C88-43EB-B6D5-68333CCEF85E}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{6211FD9A-A313-45B7-A13C-CDC9EE30C1AB}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{940C7F86-A407-4384-885A-D3BC9917BDD9}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{3E87FFCF-5DD8-43F9-BEEA-AC00434CB9F0}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{AD8767CA-1F4B-4F2A-9353-6358E113624E}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{BAD932C1-1E1D-4FA5-8EE9-F76A16ED1494}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{BAD71995-279B-4817-8B51-972A4F6FF4A5}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{DEC204B6-08D1-4B07-94B6-186DB3093592}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{ED88B722-0F89-46A6-B828-F29BAE25A49E}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{F67A7018-5F5B-4CB2-8D56-0DC2DB1599BE}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{C115AA9B-10ED-4470-98E8-DE416CD49179}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{2D7F9C9A-CA00-45A0-B645-CA4BFBE2597B}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{CC7CB2BA-DB4D-4BA3-8152-704CC4E1921F}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{6A34A811-B732-4489-A12C-CD2448E1E4B7}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{3F88EB21-E2A2-47CB-8027-D233C1327102}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{C90C14B1-E097-4B2F-8E66-BB157B4CA301}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{59D59751-1815-459E-A370-8D5518635A0A}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{71F110BB-CBC2-4F01-A824-6D52961EBF3B}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{9ED2DFF2-8BE6-450A-AD95-020954719C3A}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{6059C9B2-19A1-4612-A54C-A75B02541586}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{1C0366C6-C202-449D-95EC-306F08CA58C1}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{0BD421B5-3CE4-45C8-96A9-1B20165795F8}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{1F2F8A10-F6B5-458D-883C-4975543ED54E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId36"/>
 </worksheet>
 </file>